--- a/Web scraping/job.xlsx
+++ b/Web scraping/job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3547</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5076</t>
+          <t>5232</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3203</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1710</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1565</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>869</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1527</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1242</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1136</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1766</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1249</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>1430</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>999</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>333</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>333</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>493</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Network Manager</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nebula Energy</t>
+          <t>Shrestha Amrit Traders</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Network Manager</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Codewing Solutions</t>
+          <t>Nebula Energy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1112</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IT Assistant</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>iDream Technologies</t>
+          <t>Codewing Solutions</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>751</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Scanner Technician</t>
+          <t>IT Assistant</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tech One Global</t>
+          <t>iDream Technologies</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>1717</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Project Manager/ Team Lead</t>
+          <t>Scanner Technician</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>Tech One Global</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>317</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Project Manager/ Team Lead</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>762</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backend Developer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>422</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AI Expert</t>
+          <t>Backend Developer</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>465</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Software Developer / Programmer…</t>
+          <t>AI Expert</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>387</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Web Designer</t>
+          <t>Software Developer / Programmer…</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>View9</t>
+          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Web Developer (Laravel)</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>View9</t>
+          <t>Ckieck Tech Inc.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Technical Software Support</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Neosys Technology</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>

--- a/Web scraping/job.xlsx
+++ b/Web scraping/job.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3656</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>6812</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Marketing Manager</t>
+          <t>Senior PHP/Wordpress Developer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aligned Community Care</t>
+          <t>Tech Central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>948</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Security Researcher</t>
+          <t>Symfony / React Developer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Dzango Technologies Limited</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1592</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quality Assurance Engineer- Sec…</t>
+          <t>Full Stack Web Developer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Executive Search- merojob</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1384</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Senior PHP/Wordpress Developer</t>
+          <t>Business Growth Associate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tech Central</t>
+          <t>WorldLink Communications</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>1282</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Symfony / React Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dzango Technologies Limited</t>
+          <t>WorldLink Communications</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1955</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Flutter/Android/IOS Developer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Executive Search- merojob</t>
+          <t>Zinob Inc.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1335</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Business Growth Associate</t>
+          <t>Associate Data Analytics Manager</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WorldLink Communications</t>
+          <t>Cedar Gate Services</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1595</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Webmaster</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WorldLink Communications</t>
+          <t>Volunteers Initiative Nepal (VIN)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1174</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flutter/Android/IOS Developer</t>
+          <t>Lead Engineer- Python</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Zinob Inc.</t>
+          <t>Logpoint Nepal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>381</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Associate Data Analytics Manager</t>
+          <t>Lead Engineer (Python)- SIEM In…</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cedar Gate Services</t>
+          <t>Logpoint Nepal</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>383</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Webmaster</t>
+          <t>Devops engineer (Remote)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Volunteers Initiative Nepal (VIN)</t>
+          <t>Dzango Technologies Limited</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>617</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lead Engineer- Python</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Shrestha Amrit Traders</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>424</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lead Engineer (Python)- SIEM In…</t>
+          <t>Network Manager</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Nebula Energy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1193</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Devops engineer (Remote)</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dzango Technologies Limited</t>
+          <t>Codewing Solutions</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>807</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Scanner Technician</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Shrestha Amrit Traders</t>
+          <t>Tech One Global</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>358</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Network Manager</t>
+          <t>Project Manager/ Team Lead</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nebula Energy</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>905</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Codewing Solutions</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IT Assistant</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>iDream Technologies</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>485</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Scanner Technician</t>
+          <t>Backend Developer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tech One Global</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>537</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Project Manager/ Team Lead</t>
+          <t>AI Expert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>444</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Software Developer / Programmer…</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>260</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Software Developer / Programmer…</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Backend Developer</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>Ckieck Tech Inc.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AI Expert</t>
+          <t>Technical Software Support</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>Neosys Technology</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>229</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Software Developer / Programmer…</t>
+          <t>Senior .Net Programmer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
+          <t>Tulips Technologies</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Software Developer / Programmer…</t>
+          <t>NOC ENGINEER/ L2 /L3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
+          <t>Fiberworld Communication PVT. LTD.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Web Designer</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ckieck Tech Inc.</t>
+          <t>View9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>653</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Technical Software Support</t>
+          <t>Web Developer (Laravel)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Neosys Technology</t>
+          <t>View9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>601</t>
         </is>
       </c>
     </row>

--- a/Web scraping/job.xlsx
+++ b/Web scraping/job.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3742</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6812</t>
+          <t>8612</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>978</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1641</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Full Stack Web Developer</t>
+          <t>Sales Specialist - IT (Informat…</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Executive Search- merojob</t>
+          <t>AlphaBetaTheta Technologies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>333</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Business Growth Associate</t>
+          <t>Associate Data Analytics Manager</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WorldLink Communications</t>
+          <t>Cedar Gate Services</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1711</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Webmaster</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WorldLink Communications</t>
+          <t>Volunteers Initiative Nepal (VIN)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1262</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flutter/Android/IOS Developer</t>
+          <t>Lead Engineer- Python</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Zinob Inc.</t>
+          <t>Logpoint Nepal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Associate Data Analytics Manager</t>
+          <t>Lead Engineer (Python)- SIEM In…</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cedar Gate Services</t>
+          <t>Logpoint Nepal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>416</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Webmaster</t>
+          <t>Devops engineer (Remote)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Volunteers Initiative Nepal (VIN)</t>
+          <t>Dzango Technologies Limited</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>708</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lead Engineer- Python</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Shrestha Amrit Traders</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>534</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lead Engineer (Python)- SIEM In…</t>
+          <t>IOS Developer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Logpoint Nepal</t>
+          <t>Hamro Academy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Devops engineer (Remote)</t>
+          <t>Software Engineer- Python</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dzango Technologies Limited</t>
+          <t>Logpoint Nepal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Network Manager</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shrestha Amrit Traders</t>
+          <t>Nebula Energy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Network Manager</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nebula Energy</t>
+          <t>Codewing Solutions</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>857</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Scanner Technician</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Codewing Solutions</t>
+          <t>Tech One Global</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>384</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Scanner Technician</t>
+          <t>Project Manager/ Team Lead</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tech One Global</t>
+          <t>Dallo Tech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Project Manager/ Team Lead</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>288</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>515</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Backend Developer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>595</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Backend Developer</t>
+          <t>AI Expert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>486</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AI Expert</t>
+          <t>Software Developer / Programmer…</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dallo Tech Pvt. Ltd.</t>
+          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>329</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Software Developer / Programmer…</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>National Society for Earthquake Technology-Nepal (NSET)</t>
+          <t>Ckieck Tech Inc.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Technical Software Support</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ckieck Tech Inc.</t>
+          <t>Neosys Technology</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>321</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Technical Software Support</t>
+          <t>Senior .Net Programmer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Neosys Technology</t>
+          <t>Tulips Technologies</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Senior .Net Programmer</t>
+          <t>NOC ENGINEER/ L2 /L3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tulips Technologies</t>
+          <t>Fiberworld Communication PVT. LTD.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>207</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NOC ENGINEER/ L2 /L3</t>
+          <t>Customer Support Representative</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fiberworld Communication PVT. LTD.</t>
+          <t>Codavatar</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>703</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>647</t>
         </is>
       </c>
     </row>
